--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Qiita記事\python\openpyxl-save-drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5DFC20-6EE0-489B-9872-587B3C0A6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01AD67-6505-4EA9-BB68-76EC554FB4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3296,90 +3296,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B381ECB5-F772-0B06-CB04-31748128DA9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="419100"/>
-          <a:ext cx="1438275" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>あいうえお</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343149</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3403,14 +3330,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1047750"/>
+          <a:off x="685800" y="1676400"/>
           <a:ext cx="1781424" cy="1486107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="星: 5 pt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9016D1-C958-0A02-1035-B32122363BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="209551"/>
+          <a:ext cx="1438275" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図形</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3446,7 +3451,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$2:$E$4" spid="_x0000_s2054"/>
+                  <a14:cameraTool cellRange="$E$2:$E$4" spid="_x0000_s2059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
